--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -25,1390 +25,1390 @@
     <t>player</t>
   </si>
   <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Delprato</t>
+  </si>
+  <si>
+    <t>Balogh</t>
+  </si>
+  <si>
+    <t>Circati</t>
+  </si>
+  <si>
+    <t>Valeri</t>
+  </si>
+  <si>
+    <t>Estevez</t>
+  </si>
+  <si>
+    <t>Bernabe'</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Sohm</t>
+  </si>
+  <si>
+    <t>Mihaila</t>
+  </si>
+  <si>
+    <t>Bonny</t>
+  </si>
+  <si>
+    <t>Chichizola</t>
+  </si>
+  <si>
+    <t>Corvi</t>
+  </si>
+  <si>
+    <t>Coulibaly W.</t>
+  </si>
+  <si>
+    <t>Cyprien</t>
+  </si>
+  <si>
+    <t>Camara D.</t>
+  </si>
+  <si>
+    <t>Hainaut</t>
+  </si>
+  <si>
+    <t>Almqvist</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Maignan</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Tomori</t>
+  </si>
+  <si>
+    <t>Pavlovic</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Reijnders</t>
+  </si>
+  <si>
+    <t>Musah</t>
+  </si>
+  <si>
+    <t>Pulisic</t>
+  </si>
+  <si>
+    <t>Loftus-Cheek</t>
+  </si>
+  <si>
+    <t>Leao</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Torriani</t>
+  </si>
+  <si>
+    <t>Nava</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Gabbia</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Jimenez A.</t>
+  </si>
+  <si>
+    <t>Saelemaekers</t>
+  </si>
+  <si>
+    <t>Chukwueze</t>
+  </si>
+  <si>
+    <t>Fofana Y.</t>
+  </si>
+  <si>
+    <t>Liberali</t>
+  </si>
+  <si>
+    <t>Bennacer</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Giannetti L.</t>
+  </si>
+  <si>
+    <t>Ehizibue</t>
+  </si>
+  <si>
+    <t>Payero</t>
+  </si>
+  <si>
+    <t>Lovric</t>
+  </si>
+  <si>
+    <t>Kamara H.</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Brenner</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Padelli</t>
+  </si>
+  <si>
+    <t>Sava</t>
+  </si>
+  <si>
+    <t>Kabasele</t>
+  </si>
+  <si>
+    <t>Ebosse</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Esteves G.</t>
+  </si>
+  <si>
+    <t>Zemura</t>
+  </si>
+  <si>
+    <t>Abankwah</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Karlstrom</t>
+  </si>
+  <si>
+    <t>Ekkelenkamp</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Davis K.</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Guendouzi</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Dele-Bashiru</t>
+  </si>
+  <si>
+    <t>Noslin</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Mandas</t>
+  </si>
+  <si>
+    <t>Furlanetto</t>
+  </si>
+  <si>
+    <t>Tavares N.</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Castrovilli</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Tchaouna</t>
+  </si>
+  <si>
+    <t>Isaksen</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Pavard</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Taremi</t>
+  </si>
+  <si>
+    <t>Thuram</t>
+  </si>
+  <si>
+    <t>Martinez Jo.</t>
+  </si>
+  <si>
+    <t>Di Gennaro</t>
+  </si>
+  <si>
+    <t>Bisseck</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Arnautovic</t>
+  </si>
+  <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Baschirotto</t>
+  </si>
+  <si>
+    <t>Gaspar K.</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Ramadani</t>
+  </si>
+  <si>
+    <t>Pierret</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Rafia</t>
+  </si>
+  <si>
+    <t>Dorgu</t>
+  </si>
+  <si>
+    <t>Krstovic</t>
+  </si>
+  <si>
+    <t>Fruchtl</t>
+  </si>
+  <si>
+    <t>Samooja</t>
+  </si>
+  <si>
+    <t>Borbei</t>
+  </si>
+  <si>
+    <t>Pelmard</t>
+  </si>
+  <si>
+    <t>Berisha M.</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Tete Morente</t>
+  </si>
+  <si>
+    <t>Marchwinski</t>
+  </si>
+  <si>
+    <t>Coulibaly L.</t>
+  </si>
+  <si>
+    <t>Helgason</t>
+  </si>
+  <si>
+    <t>Pierotti</t>
+  </si>
+  <si>
+    <t>Burnete</t>
+  </si>
+  <si>
+    <t>Pizzignacco</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Bondo</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>Maldini</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Turati</t>
+  </si>
+  <si>
+    <t>Mazza</t>
+  </si>
+  <si>
+    <t>Carboni A.</t>
+  </si>
+  <si>
+    <t>D'Ambrosio</t>
+  </si>
+  <si>
+    <t>Pereira P.</t>
+  </si>
+  <si>
+    <t>Valoti</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>D'Alessandro</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Forson O.</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Caprari</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Sabelli</t>
+  </si>
+  <si>
+    <t>Frendrup</t>
+  </si>
+  <si>
+    <t>Badelj</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Vitinha O.</t>
+  </si>
+  <si>
+    <t>Pinamonti</t>
+  </si>
+  <si>
+    <t>Leali</t>
+  </si>
+  <si>
+    <t>Sommariva</t>
+  </si>
+  <si>
+    <t>Vogliacco</t>
+  </si>
+  <si>
+    <t>Marcandalli</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Thorsby</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Ekhator</t>
+  </si>
+  <si>
+    <t>Ekuban</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>Masina</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Sosa B.</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Paleari</t>
+  </si>
+  <si>
+    <t>Donnarumma An.</t>
+  </si>
+  <si>
+    <t>Sazonov</t>
+  </si>
+  <si>
+    <t>Dellavalle</t>
+  </si>
+  <si>
+    <t>Dembele' A.</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Horvath</t>
+  </si>
+  <si>
+    <t>Adams C.</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
+  </si>
+  <si>
+    <t>Pellegri</t>
+  </si>
+  <si>
+    <t>Njie</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Brescianini</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Retegui</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Godfrey</t>
+  </si>
+  <si>
+    <t>Palestra</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>Cassa</t>
+  </si>
+  <si>
+    <t>Zaniolo</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Comuzzo</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Amrabat</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>De Gea</t>
+  </si>
+  <si>
+    <t>Martinelli T.</t>
+  </si>
+  <si>
+    <t>Kayode</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Bianco</t>
+  </si>
+  <si>
+    <t>Infantino</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Gudmundsson A.</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Beltran L.</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Joronen</t>
+  </si>
+  <si>
+    <t>Idzes</t>
+  </si>
+  <si>
+    <t>Svoboda</t>
+  </si>
+  <si>
+    <t>Sverko</t>
+  </si>
+  <si>
+    <t>Candela</t>
+  </si>
+  <si>
+    <t>Andersen M.k.</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Zampano</t>
+  </si>
+  <si>
+    <t>Ellertsson</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
+  </si>
+  <si>
+    <t>Gytkjaer</t>
+  </si>
+  <si>
+    <t>Stankovic F.</t>
+  </si>
+  <si>
+    <t>Bertinato</t>
+  </si>
+  <si>
+    <t>Lucchesi</t>
+  </si>
+  <si>
+    <t>Haps</t>
+  </si>
+  <si>
+    <t>Sagrado</t>
+  </si>
+  <si>
+    <t>Altare</t>
+  </si>
+  <si>
+    <t>Crnigoj</t>
+  </si>
+  <si>
+    <t>Lella</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Doumbia I.</t>
+  </si>
+  <si>
+    <t>El Haddad</t>
+  </si>
+  <si>
+    <t>Pierini</t>
+  </si>
+  <si>
+    <t>Raimondo</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Di Lorenzo</t>
+  </si>
+  <si>
+    <t>Rrahmani</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
+    <t>Caprile</t>
+  </si>
+  <si>
+    <t>Contini</t>
+  </si>
+  <si>
+    <t>Juan Jesus</t>
+  </si>
+  <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Marin R.</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Folorunsho</t>
+  </si>
+  <si>
+    <t>Zerbin</t>
+  </si>
+  <si>
+    <t>Neres</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Cheddira</t>
+  </si>
+  <si>
+    <t>Skorupski</t>
+  </si>
+  <si>
+    <t>Posch</t>
+  </si>
+  <si>
+    <t>Beukema</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Miranda J.</t>
+  </si>
+  <si>
+    <t>Aebischer</t>
+  </si>
+  <si>
+    <t>Freuler</t>
+  </si>
+  <si>
+    <t>Fabbian</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Castro S.</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Bagnolini</t>
+  </si>
+  <si>
+    <t>Ilic M.</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Lucumi'</t>
+  </si>
+  <si>
+    <t>Corazza</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Urbanski</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>Byar</t>
+  </si>
+  <si>
+    <t>Odgaard</t>
+  </si>
+  <si>
+    <t>Dallinga</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Celik</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>N'Dicka</t>
+  </si>
+  <si>
+    <t>Angelino</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Dovbyk</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Marin Re.</t>
+  </si>
+  <si>
+    <t>Smalling</t>
+  </si>
+  <si>
+    <t>Sangare' B.</t>
+  </si>
+  <si>
+    <t>Dahl</t>
+  </si>
+  <si>
+    <t>Le Fee</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Pisilli</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Joao Costa</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Vasquez D.</t>
   </si>
   <si>
     <t>Ismajli</t>
   </si>
   <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Viti</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Henderson L.</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Esposito Se.</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Chiorra</t>
+  </si>
+  <si>
+    <t>Stojanovic</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Marianucci</t>
+  </si>
+  <si>
+    <t>Guarino</t>
+  </si>
+  <si>
+    <t>Goglichidze</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Belardinelli</t>
+  </si>
+  <si>
+    <t>Shpendi S.</t>
+  </si>
+  <si>
+    <t>Solbakken</t>
+  </si>
+  <si>
+    <t>Ekong</t>
+  </si>
+  <si>
+    <t>Scuffet</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
     <t>Luperto</t>
   </si>
   <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Deiola</t>
+  </si>
+  <si>
+    <t>Prati</t>
   </si>
   <si>
     <t>Marin</t>
   </si>
   <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Caprile</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Guarino</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Shpendi S.</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Kabasele</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Kamara H.</t>
-  </si>
-  <si>
-    <t>Lucca</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Okoye</t>
-  </si>
-  <si>
-    <t>Ferreira J.</t>
-  </si>
-  <si>
-    <t>Zemura</t>
-  </si>
-  <si>
-    <t>Kristensen T.</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Camara E.</t>
-  </si>
-  <si>
-    <t>Zarraga</t>
-  </si>
-  <si>
-    <t>Payero</t>
-  </si>
-  <si>
-    <t>Quina</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Ake' M.</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Baschirotto</t>
-  </si>
-  <si>
-    <t>Pongracic</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Rafia</t>
-  </si>
-  <si>
-    <t>Ramadani</t>
-  </si>
-  <si>
-    <t>Kaba</t>
-  </si>
-  <si>
-    <t>Almqvist</t>
-  </si>
-  <si>
-    <t>Krstovic</t>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Luvumbo</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Sherri</t>
+  </si>
+  <si>
+    <t>Ciocci</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Hatzidiakos</t>
+  </si>
+  <si>
+    <t>Wieteska</t>
+  </si>
+  <si>
+    <t>Palomino</t>
+  </si>
+  <si>
+    <t>Makoumbou</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Jankto</t>
+  </si>
+  <si>
+    <t>Felici</t>
+  </si>
+  <si>
+    <t>Lapadula</t>
+  </si>
+  <si>
+    <t>Mutandwa</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Iovine</t>
+  </si>
+  <si>
+    <t>Goldaniga</t>
+  </si>
+  <si>
+    <t>Barba</t>
+  </si>
+  <si>
+    <t>Moreno Alb.</t>
   </si>
   <si>
     <t>Strefezza</t>
   </si>
   <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Dorgu</t>
-  </si>
-  <si>
-    <t>Touba</t>
-  </si>
-  <si>
-    <t>Smajlovic</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Berisha M.</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Sansone</t>
-  </si>
-  <si>
-    <t>Corfitzen</t>
-  </si>
-  <si>
-    <t>Consigli</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Tressoldi</t>
-  </si>
-  <si>
-    <t>Vina</t>
-  </si>
-  <si>
-    <t>Boloca</t>
-  </si>
-  <si>
-    <t>Racic</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Missori</t>
-  </si>
-  <si>
-    <t>Pedersen</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Lipani</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Castillejo</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Mulattieri</t>
-  </si>
-  <si>
-    <t>Sommer</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Thuram</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Di Gennaro</t>
-  </si>
-  <si>
-    <t>Pavard</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Bisseck</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
-    <t>Agoume</t>
-  </si>
-  <si>
-    <t>Sensi</t>
-  </si>
-  <si>
-    <t>Klaassen</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Skorupski</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Beukema</t>
-  </si>
-  <si>
-    <t>Calafiori</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Freuler</t>
-  </si>
-  <si>
-    <t>Aebischer</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Ndoye</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Bagnolini</t>
-  </si>
-  <si>
-    <t>Corazza</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Fabbian</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Urbanski</t>
-  </si>
-  <si>
-    <t>Saelemaekers</t>
-  </si>
-  <si>
-    <t>Karlsson</t>
-  </si>
-  <si>
-    <t>Van Hooijdonk</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
+    <t>Mazzitelli</t>
+  </si>
+  <si>
+    <t>Braunoder</t>
+  </si>
+  <si>
+    <t>Da Cunha</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Cutrone</t>
+  </si>
+  <si>
+    <t>Reina</t>
+  </si>
+  <si>
+    <t>Vigorito</t>
+  </si>
+  <si>
+    <t>Sala M.</t>
+  </si>
+  <si>
+    <t>Kovacik</t>
+  </si>
+  <si>
+    <t>Sergi Roberto</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
+    <t>Fadera</t>
+  </si>
+  <si>
+    <t>Engelhardt</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Jasim</t>
+  </si>
+  <si>
+    <t>Cerri</t>
+  </si>
+  <si>
+    <t>Gabrielloni</t>
+  </si>
+  <si>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Tchatchoua</t>
+  </si>
+  <si>
+    <t>Dawidowicz</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Frese</t>
+  </si>
+  <si>
+    <t>Belahyane</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Rocha Livramento</t>
+  </si>
+  <si>
+    <t>Suslov</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Mosquera</t>
+  </si>
+  <si>
+    <t>Perilli</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Ghilardi</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Okou</t>
+  </si>
+  <si>
+    <t>Ceccherini</t>
+  </si>
+  <si>
+    <t>Faraoni</t>
+  </si>
+  <si>
+    <t>Dani Silva</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Mitrovic S.</t>
+  </si>
+  <si>
+    <t>Harroui</t>
+  </si>
+  <si>
+    <t>Cisse' A.</t>
+  </si>
+  <si>
+    <t>Tavsan</t>
+  </si>
+  <si>
+    <t>Tengstedt</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Kalulu</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Douglas Luiz</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
+    <t>Yildiz</t>
+  </si>
+  <si>
+    <t>Mbangula</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
   </si>
   <si>
     <t>Danilo</t>
   </si>
   <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Gatti</t>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Rouhi</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
   </si>
   <si>
     <t>Mckennie</t>
   </si>
   <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
     <t>Milik</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Huijsen</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Weah</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Iling Junior</t>
-  </si>
-  <si>
-    <t>Yildiz</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Kean</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>N'guessan</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Gineitis</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Pellegri</t>
-  </si>
-  <si>
-    <t>Martinez Jo.</t>
-  </si>
-  <si>
-    <t>Bani</t>
-  </si>
-  <si>
-    <t>Dragusin</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>De Winter</t>
-  </si>
-  <si>
-    <t>Thorsby</t>
-  </si>
-  <si>
-    <t>Malinovskyi</t>
-  </si>
-  <si>
-    <t>Frendrup</t>
-  </si>
-  <si>
-    <t>Matturro</t>
-  </si>
-  <si>
-    <t>Gudmundsson A.</t>
-  </si>
-  <si>
-    <t>Retegui</t>
-  </si>
-  <si>
-    <t>Leali</t>
-  </si>
-  <si>
-    <t>Sommariva</t>
-  </si>
-  <si>
-    <t>Hefti</t>
-  </si>
-  <si>
-    <t>Haps</t>
-  </si>
-  <si>
-    <t>Vogliacco</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Sabelli</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>Jagiello</t>
-  </si>
-  <si>
-    <t>Kutlu</t>
-  </si>
-  <si>
-    <t>Galdames</t>
-  </si>
-  <si>
-    <t>Puscas</t>
-  </si>
-  <si>
-    <t>Maignan</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Tomori</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Musah</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Reijnders</t>
-  </si>
-  <si>
-    <t>Pulisic</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Pellegrino</t>
-  </si>
-  <si>
-    <t>Bartesaghi</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Chukwueze</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Okafor</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Carboni A.</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Sorrentino A.</t>
-  </si>
-  <si>
-    <t>Gori</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Pereira P.</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Bondo</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Maric</t>
-  </si>
-  <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Gyomber</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Legowski</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Jovane</t>
-  </si>
-  <si>
-    <t>Costil</t>
-  </si>
-  <si>
-    <t>Fazio</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
-    <t>Tchaouna</t>
-  </si>
-  <si>
-    <t>Sfait</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Martegani</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Simy</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Turati</t>
-  </si>
-  <si>
-    <t>Oyono</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Monterisi</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Mazzitelli</t>
-  </si>
-  <si>
-    <t>Barrenechea</t>
-  </si>
-  <si>
-    <t>Brescianini</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Cheddira</t>
-  </si>
-  <si>
-    <t>Baez</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Frattali</t>
-  </si>
-  <si>
-    <t>Mateus Lusuardi</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Reinier</t>
-  </si>
-  <si>
-    <t>Ibrahimovic A.</t>
-  </si>
-  <si>
-    <t>Lulic K.</t>
-  </si>
-  <si>
-    <t>Caso</t>
-  </si>
-  <si>
-    <t>Bidaoui</t>
-  </si>
-  <si>
-    <t>Kvernadze</t>
-  </si>
-  <si>
-    <t>Cuni</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Faraoni</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Suslov</t>
-  </si>
-  <si>
-    <t>Folorunsho</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Perilli</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Tchatchoua</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Charlys</t>
-  </si>
-  <si>
-    <t>Hongla</t>
-  </si>
-  <si>
-    <t>Joselito</t>
-  </si>
-  <si>
-    <t>Serdar</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Kamada</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Mandas</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Pellegrini Lu.</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Guendouzi</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
-    <t>Isaksen</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Kolasinac</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Bakker</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Scamacca</t>
-  </si>
-  <si>
-    <t>Muriel</t>
-  </si>
-  <si>
-    <t>Scuffet</t>
-  </si>
-  <si>
-    <t>Wieteska</t>
-  </si>
-  <si>
-    <t>Dossena</t>
-  </si>
-  <si>
-    <t>Hatzidiakos</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>Nandez</t>
-  </si>
-  <si>
-    <t>Makoumbou</t>
-  </si>
-  <si>
-    <t>Deiola</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Oristanio</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Radunovic</t>
-  </si>
-  <si>
-    <t>Aresti</t>
-  </si>
-  <si>
-    <t>Goldaniga</t>
-  </si>
-  <si>
-    <t>Obert</t>
-  </si>
-  <si>
-    <t>Azzi</t>
-  </si>
-  <si>
-    <t>Di Pardo</t>
-  </si>
-  <si>
-    <t>Prati</t>
-  </si>
-  <si>
-    <t>Viola</t>
-  </si>
-  <si>
-    <t>Jankto</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Mancosu</t>
-  </si>
-  <si>
-    <t>Luvumbo</t>
-  </si>
-  <si>
-    <t>Pavoletti</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>N'dicka</t>
-  </si>
-  <si>
-    <t>Kristensen</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Karsdorp</t>
-  </si>
-  <si>
-    <t>Celik</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Pagano</t>
-  </si>
-  <si>
-    <t>Aouar</t>
-  </si>
-  <si>
-    <t>Pisilli</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Azmoun</t>
-  </si>
-  <si>
-    <t>Meret</t>
-  </si>
-  <si>
-    <t>Di Lorenzo</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Natan</t>
-  </si>
-  <si>
-    <t>Mario Rui</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Contini</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Zerbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cajuste </t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Lindstrom</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Simeone</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Kayode</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Lopez M.</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
-    <t>Martinelli T.</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Comuzzo</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Infantino</t>
-  </si>
-  <si>
-    <t>Amatucci</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Arthur Melo</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Sottil</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Beltran L.</t>
   </si>
 </sst>
 </file>
@@ -1810,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1986,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -1997,10 +1997,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2030,7 +2030,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -2063,10 +2063,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C27">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C51">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C54">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2492,7 +2492,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C66">
         <v>60</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C74">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C78">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2682,7 +2682,7 @@
         <v>0.4</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2756,7 +2756,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2789,10 +2789,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2811,10 +2811,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2822,10 +2822,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2833,10 +2833,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C97">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2844,10 +2844,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2899,10 +2899,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2910,10 +2910,10 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2943,10 +2943,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C107">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2954,10 +2954,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2976,10 +2976,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2998,10 +2998,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3031,10 +3031,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3097,10 +3097,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C121">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3108,10 +3108,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C122">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C123">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3163,10 +3163,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3174,10 +3174,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3207,7 +3207,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>50</v>
@@ -3218,10 +3218,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C132">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C133">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3240,10 +3240,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C134">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3284,10 +3284,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3295,10 +3295,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3317,10 +3317,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C141">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3361,10 +3361,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C147">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>0.55</v>
       </c>
       <c r="C148">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3427,10 +3427,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C151">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3471,10 +3471,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3493,10 +3493,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3515,10 +3515,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C159">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3526,10 +3526,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C160">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3537,10 +3537,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3548,10 +3548,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3570,10 +3570,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C164">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3636,10 +3636,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C170">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3746,10 +3746,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3768,10 +3768,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3779,10 +3779,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3834,10 +3834,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3856,10 +3856,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C190">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3867,10 +3867,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C191">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3878,10 +3878,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3889,10 +3889,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3900,10 +3900,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3966,10 +3966,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3980,7 +3980,7 @@
         <v>0.4</v>
       </c>
       <c r="C201">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3988,10 +3988,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4021,10 +4021,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C205">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4032,10 +4032,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4054,10 +4054,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4065,10 +4065,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C209">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4076,10 +4076,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C210">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4131,10 +4131,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C215">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4142,10 +4142,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C216">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4153,10 +4153,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4164,10 +4164,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4186,10 +4186,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C220">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4219,7 +4219,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C223">
         <v>50</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4252,10 +4252,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4263,10 +4263,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4274,10 +4274,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4296,10 +4296,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="C231">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4329,10 +4329,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C233">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4362,10 +4362,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4373,10 +4373,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4384,10 +4384,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4395,10 +4395,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4406,10 +4406,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4428,10 +4428,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4439,10 +4439,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="C247">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4494,7 +4494,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>60</v>
@@ -4505,10 +4505,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C249">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4516,10 +4516,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4527,10 +4527,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4538,10 +4538,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4549,10 +4549,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4560,10 +4560,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C254">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4604,10 +4604,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C258">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4637,10 +4637,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4648,10 +4648,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C262">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4659,10 +4659,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4670,10 +4670,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4681,10 +4681,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C265">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="C268">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4725,10 +4725,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4758,10 +4758,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C272">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4780,10 +4780,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C274">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4791,10 +4791,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C275">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4802,10 +4802,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4813,10 +4813,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C277">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4824,10 +4824,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4857,10 +4857,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C281">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4890,10 +4890,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C284">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4901,10 +4901,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4912,10 +4912,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C286">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4923,10 +4923,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C287">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4934,10 +4934,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4945,10 +4945,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4956,10 +4956,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C290">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4989,10 +4989,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C293">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5011,10 +5011,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C295">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5033,10 +5033,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C297">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5044,10 +5044,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5055,10 +5055,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5066,10 +5066,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="C301">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5088,10 +5088,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C302">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5099,10 +5099,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C303">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5132,10 +5132,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="C307">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5165,10 +5165,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5176,10 +5176,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5187,10 +5187,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C311">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5209,10 +5209,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5253,10 +5253,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C317">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="C318">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="C319">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5286,10 +5286,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="C320">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5297,10 +5297,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C321">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5319,10 +5319,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="C324">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="C325">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5352,10 +5352,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C326">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5374,10 +5374,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5385,10 +5385,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C329">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5396,10 +5396,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C330">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5429,10 +5429,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C333">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5440,10 +5440,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5462,10 +5462,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C336">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="C339">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5506,7 +5506,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C340">
         <v>60</v>
@@ -5517,10 +5517,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5528,7 +5528,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C342">
         <v>60</v>
@@ -5539,10 +5539,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C343">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="C344">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5572,10 +5572,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5583,10 +5583,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5594,10 +5594,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="C349">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="C351">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="C352">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5649,10 +5649,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="C353">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5663,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5671,10 +5671,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C355">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5682,10 +5682,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C356">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5693,10 +5693,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5704,10 +5704,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5715,10 +5715,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="C360">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5737,10 +5737,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C361">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5748,10 +5748,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C362">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="C364">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="C365">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="C366">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5803,7 +5803,7 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C367">
         <v>60</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5825,7 +5825,7 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C369">
         <v>50</v>
@@ -5836,10 +5836,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5847,10 +5847,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5869,10 +5869,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C373">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5880,10 +5880,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C374">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="C375">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="C378">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5935,10 +5935,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5946,10 +5946,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5957,10 +5957,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5968,10 +5968,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="C383">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5990,10 +5990,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="C386">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="C387">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6034,10 +6034,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C388">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="C389">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="C391">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="C392">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6089,10 +6089,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6100,10 +6100,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C394">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6111,10 +6111,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6122,10 +6122,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C397">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="C398">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6166,10 +6166,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C400">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6180,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="C401">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="C402">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6213,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6232,10 +6232,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6243,10 +6243,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="C408">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="C409">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6276,10 +6276,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6298,10 +6298,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6309,10 +6309,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C413">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6331,10 +6331,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C415">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6342,10 +6342,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C416">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6353,10 +6353,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6364,10 +6364,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6375,10 +6375,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6397,10 +6397,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C421">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6408,10 +6408,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="C423">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6430,10 +6430,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C424">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="C425">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6463,10 +6463,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C427">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6474,10 +6474,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C428">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6485,10 +6485,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6496,10 +6496,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C430">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="C432">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6529,10 +6529,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C433">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="C434">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6551,10 +6551,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="C436">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6573,10 +6573,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6595,10 +6595,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C439">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6606,10 +6606,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6617,10 +6617,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C441">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6628,10 +6628,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C442">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6639,10 +6639,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C443">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6650,10 +6650,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C444">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6664,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="C445">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6672,10 +6672,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C446">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="C447">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="C448">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="C449">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6716,10 +6716,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C450">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6727,10 +6727,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6738,10 +6738,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C452">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6749,10 +6749,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6760,10 +6760,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C454">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6771,10 +6771,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="C456">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6807,7 +6807,7 @@
         <v>0.45</v>
       </c>
       <c r="C458">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="C459">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="C460">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6837,10 +6837,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C461">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="C462">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="C463">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
